--- a/refs/heads/rc2/StructureDefinition-SVC-Basic-QRCode.xlsx
+++ b/refs/heads/rc2/StructureDefinition-SVC-Basic-QRCode.xlsx
@@ -406,8 +406,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://who-int.github.io/svc/refs/heads/rc2/CodeSystem/SVC-Basic-Resource"/&gt;
-    &lt;code value="qrcode"/&gt;
+    &lt;code value="adminact"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
